--- a/docs/odh/shr-core-EncounterDiagnosis-model.xlsx
+++ b/docs/odh/shr-core-EncounterDiagnosis-model.xlsx
@@ -153,7 +153,7 @@
     <t>shr-core-EncounterDiagnosis-model.condition</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Condition-model]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Condition-model]]}
 </t>
   </si>
   <si>
@@ -337,7 +337,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
